--- a/config.xlsx
+++ b/config.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="45">
   <si>
     <t>项目类型</t>
   </si>
@@ -34,7 +34,7 @@
     <t>控件类型</t>
   </si>
   <si>
-    <t>上限值</t>
+    <t>限值</t>
   </si>
   <si>
     <t>是否必填</t>
@@ -76,24 +76,18 @@
     <t>是</t>
   </si>
   <si>
+    <t>V1.0.2</t>
+  </si>
+  <si>
+    <t>Phone自定义定向1</t>
+  </si>
+  <si>
+    <t>多行文本框</t>
+  </si>
+  <si>
     <t>否</t>
   </si>
   <si>
-    <t>V1.0.2</t>
-  </si>
-  <si>
-    <t>P0</t>
-  </si>
-  <si>
-    <t>Phone自定义定向1</t>
-  </si>
-  <si>
-    <t>多行文本框</t>
-  </si>
-  <si>
-    <t>P1</t>
-  </si>
-  <si>
     <t>Phone自定义定向2</t>
   </si>
   <si>
@@ -103,9 +97,6 @@
     <t>0,100</t>
   </si>
   <si>
-    <t>P2</t>
-  </si>
-  <si>
     <t>无</t>
   </si>
   <si>
@@ -115,18 +106,12 @@
     <t>单选下拉框</t>
   </si>
   <si>
-    <t>P3</t>
-  </si>
-  <si>
     <t>Phone自定义定向4</t>
   </si>
   <si>
     <t>多选下拉框</t>
   </si>
   <si>
-    <t>P4</t>
-  </si>
-  <si>
     <t>Phone自定义定向5</t>
   </si>
   <si>
@@ -151,10 +136,19 @@
     <t>日期</t>
   </si>
   <si>
-    <t>Phone自定义定向9</t>
+    <t>审核</t>
   </si>
   <si>
     <t>按钮</t>
+  </si>
+  <si>
+    <t>编辑</t>
+  </si>
+  <si>
+    <t>删除</t>
+  </si>
+  <si>
+    <t>修改</t>
   </si>
 </sst>
 </file>
@@ -162,12 +156,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="23">
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -189,8 +183,82 @@
       <charset val="134"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -204,17 +272,11 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -226,51 +288,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="18"/>
       <color theme="3"/>
@@ -280,6 +297,14 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
@@ -287,11 +312,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -302,43 +326,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -355,19 +342,139 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -379,25 +486,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -409,133 +510,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -592,12 +579,25 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -618,17 +618,17 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -636,7 +636,18 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -665,181 +676,157 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="16" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="16" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="25" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -858,6 +845,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1207,18 +1197,21 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:Q11"/>
+  <dimension ref="A1:Q14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L5" sqref="L5"/>
+      <selection activeCell="K7" sqref="K7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="11.875" customWidth="1"/>
+    <col min="2" max="2" width="20.25" customWidth="1"/>
+    <col min="4" max="4" width="17" customWidth="1"/>
     <col min="5" max="5" width="28.5" customWidth="1"/>
     <col min="6" max="8" width="14.375" customWidth="1"/>
     <col min="12" max="12" width="8.375" customWidth="1"/>
+    <col min="13" max="13" width="6.25" customWidth="1"/>
     <col min="15" max="15" width="11" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1282,23 +1275,23 @@
       <c r="F2" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="G2" s="5">
+      <c r="G2" s="6">
         <v>30</v>
       </c>
       <c r="H2" s="5" t="s">
         <v>19</v>
       </c>
       <c r="I2" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J2" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="K2" s="5">
         <v>111</v>
       </c>
       <c r="L2" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="M2" s="5">
         <v>22</v>
@@ -1306,9 +1299,7 @@
       <c r="O2" t="s">
         <v>18</v>
       </c>
-      <c r="P2" t="s">
-        <v>22</v>
-      </c>
+      <c r="P2"/>
       <c r="Q2" t="s">
         <v>19</v>
       </c>
@@ -1327,34 +1318,32 @@
         <v>16</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="G3" s="5">
+        <v>22</v>
+      </c>
+      <c r="G3" s="6">
         <v>100</v>
       </c>
       <c r="H3" s="5" t="s">
         <v>19</v>
       </c>
       <c r="I3" s="5" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="J3" s="5" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="K3" s="5"/>
       <c r="L3" s="5"/>
       <c r="M3" s="5"/>
       <c r="O3" t="s">
-        <v>24</v>
-      </c>
-      <c r="P3" t="s">
-        <v>25</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="P3"/>
       <c r="Q3" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -1371,37 +1360,35 @@
         <v>16</v>
       </c>
       <c r="E4" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="G4" s="5" t="s">
         <v>26</v>
-      </c>
-      <c r="F4" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="G4" s="5" t="s">
-        <v>28</v>
       </c>
       <c r="H4" s="5" t="s">
         <v>19</v>
       </c>
       <c r="I4" s="5" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="J4" s="5" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="K4" s="5"/>
       <c r="L4" s="5"/>
       <c r="M4" s="5"/>
       <c r="O4" t="s">
+        <v>25</v>
+      </c>
+      <c r="P4"/>
+      <c r="Q4" t="s">
         <v>27</v>
       </c>
-      <c r="P4" t="s">
-        <v>29</v>
-      </c>
-      <c r="Q4" t="s">
-        <v>30</v>
-      </c>
     </row>
-    <row r="5" spans="1:16">
+    <row r="5" spans="1:15">
       <c r="A5" s="4" t="s">
         <v>13</v>
       </c>
@@ -1415,32 +1402,29 @@
         <v>16</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="G5" s="5"/>
       <c r="H5" s="5" t="s">
         <v>19</v>
       </c>
       <c r="I5" s="5" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="J5" s="5" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="K5" s="5"/>
       <c r="L5" s="5"/>
       <c r="M5" s="5"/>
       <c r="O5" t="s">
-        <v>32</v>
-      </c>
-      <c r="P5" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
     </row>
-    <row r="6" spans="1:16">
+    <row r="6" spans="1:15">
       <c r="A6" s="4" t="s">
         <v>13</v>
       </c>
@@ -1454,29 +1438,26 @@
         <v>16</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="G6" s="5"/>
       <c r="H6" s="5" t="s">
         <v>19</v>
       </c>
       <c r="I6" s="5" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="J6" s="5" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="K6" s="5"/>
       <c r="L6" s="5"/>
       <c r="M6" s="5"/>
       <c r="O6" t="s">
-        <v>35</v>
-      </c>
-      <c r="P6" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -1493,26 +1474,26 @@
         <v>16</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="G7" s="5"/>
       <c r="H7" s="5" t="s">
         <v>19</v>
       </c>
       <c r="I7" s="5" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="J7" s="5" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="K7" s="5"/>
       <c r="L7" s="5"/>
       <c r="M7" s="5"/>
       <c r="O7" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -1529,26 +1510,26 @@
         <v>16</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="G8" s="5"/>
       <c r="H8" s="5" t="s">
         <v>19</v>
       </c>
       <c r="I8" s="5" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="J8" s="5" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="K8" s="5"/>
       <c r="L8" s="5"/>
       <c r="M8" s="5"/>
       <c r="O8" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -1565,26 +1546,26 @@
         <v>16</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="G9" s="5"/>
       <c r="H9" s="5" t="s">
         <v>19</v>
       </c>
       <c r="I9" s="5" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="J9" s="5" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="K9" s="5"/>
       <c r="L9" s="5"/>
       <c r="M9" s="5"/>
       <c r="O9" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -1601,26 +1582,26 @@
         <v>16</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="G10" s="5"/>
       <c r="H10" s="5" t="s">
         <v>19</v>
       </c>
       <c r="I10" s="5" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="J10" s="5" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="K10" s="5"/>
       <c r="L10" s="5"/>
       <c r="M10" s="5"/>
       <c r="O10" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -1637,37 +1618,136 @@
         <v>16</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="F11" s="5" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="G11" s="5"/>
       <c r="H11" s="5" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="I11" s="5" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="J11" s="5" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="K11" s="5"/>
       <c r="L11" s="5"/>
       <c r="M11" s="5"/>
       <c r="O11" t="s">
-        <v>46</v>
-      </c>
+        <v>41</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
+      <c r="A12" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="F12" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="G12" s="5"/>
+      <c r="H12" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="I12" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="J12" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="K12" s="5"/>
+      <c r="L12" s="5"/>
+      <c r="M12" s="5"/>
+    </row>
+    <row r="13" spans="1:13">
+      <c r="A13" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="F13" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="G13" s="5"/>
+      <c r="H13" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="I13" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="J13" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="K13" s="5"/>
+      <c r="L13" s="5"/>
+      <c r="M13" s="5"/>
+    </row>
+    <row r="14" spans="1:13">
+      <c r="A14" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="F14" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="G14" s="5"/>
+      <c r="H14" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="I14" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="J14" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="K14" s="5"/>
+      <c r="L14" s="5"/>
+      <c r="M14" s="5"/>
     </row>
   </sheetData>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F6 F7:F11">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F6 F7:F10 F11:F14">
       <formula1>$O$2:$O$11</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H2:H11">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H2:H10 H11:H14">
       <formula1>$Q$2:$Q$4</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I2:I6 I7:I11 J2:J6 J7:J11">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I2:I6 I7:I10 I11:I14 J2:J6 J7:J10 J11:J14">
       <formula1>$Q$2:$Q$3</formula1>
     </dataValidation>
   </dataValidations>

--- a/config.xlsx
+++ b/config.xlsx
@@ -136,7 +136,7 @@
     <t>日期</t>
   </si>
   <si>
-    <t>审核</t>
+    <t>新增</t>
   </si>
   <si>
     <t>按钮</t>
@@ -1200,7 +1200,7 @@
   <dimension ref="A1:Q14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K7" sqref="K7"/>
+      <selection activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
